--- a/data/134/DEUSTATIS/old/Persons employed and turnover of local units in manufacturing.xlsx
+++ b/data/134/DEUSTATIS/old/Persons employed and turnover of local units in manufacturing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="67">
   <si>
     <t>Persons employed and turnover of local units in
 manufacturing: Germany, months, economic activities
@@ -214,7 +214,7 @@
     <t>in branch assignments.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:54:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:50:31</t>
   </si>
 </sst>
 </file>
@@ -4157,7 +4157,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="193" max="193" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
-    <col min="202" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="205" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="204" max="204" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="203" max="203" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="202" max="202" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="201" max="201" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="200" max="200" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="199" max="199" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -4536,6 +4539,9 @@
     <col min="199" max="199" width="11.09375" customWidth="true"/>
     <col min="200" max="200" width="11.09375" customWidth="true"/>
     <col min="201" max="201" width="11.09375" customWidth="true"/>
+    <col min="202" max="202" width="11.09375" customWidth="true"/>
+    <col min="203" max="203" width="11.09375" customWidth="true"/>
+    <col min="204" max="204" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="31.50390625" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -6030,14 +6036,14 @@
       <c r="GS8" t="n" s="10">
         <v>22660.0</v>
       </c>
-      <c r="GT8" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU8" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV8" t="s" s="10">
-        <v>37</v>
+      <c r="GT8" t="n" s="10">
+        <v>22640.0</v>
+      </c>
+      <c r="GU8" t="n" s="10">
+        <v>22626.0</v>
+      </c>
+      <c r="GV8" t="n" s="10">
+        <v>22607.0</v>
       </c>
       <c r="GW8" t="s" s="10">
         <v>37</v>
@@ -6650,14 +6656,14 @@
       <c r="GS9" t="n" s="10">
         <v>5479055.0</v>
       </c>
-      <c r="GT9" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU9" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV9" t="s" s="10">
-        <v>37</v>
+      <c r="GT9" t="n" s="10">
+        <v>5495838.0</v>
+      </c>
+      <c r="GU9" t="n" s="10">
+        <v>5520174.0</v>
+      </c>
+      <c r="GV9" t="n" s="10">
+        <v>5512398.0</v>
       </c>
       <c r="GW9" t="s" s="10">
         <v>37</v>
@@ -7270,14 +7276,14 @@
       <c r="GS10" t="n" s="10">
         <v>679281.0</v>
       </c>
-      <c r="GT10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV10" t="s" s="10">
-        <v>37</v>
+      <c r="GT10" t="n" s="10">
+        <v>621554.0</v>
+      </c>
+      <c r="GU10" t="n" s="10">
+        <v>688084.0</v>
+      </c>
+      <c r="GV10" t="n" s="10">
+        <v>681985.0</v>
       </c>
       <c r="GW10" t="s" s="10">
         <v>37</v>
@@ -7890,14 +7896,14 @@
       <c r="GS11" t="n" s="10">
         <v>2.4293137E7</v>
       </c>
-      <c r="GT11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV11" t="s" s="10">
-        <v>37</v>
+      <c r="GT11" t="n" s="10">
+        <v>2.3166271E7</v>
+      </c>
+      <c r="GU11" t="n" s="10">
+        <v>2.3050435E7</v>
+      </c>
+      <c r="GV11" t="n" s="10">
+        <v>2.3344853E7</v>
       </c>
       <c r="GW11" t="s" s="10">
         <v>37</v>
@@ -8510,14 +8516,14 @@
       <c r="GS12" t="n" s="10">
         <v>1.51437639E8</v>
       </c>
-      <c r="GT12" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU12" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV12" t="s" s="10">
-        <v>37</v>
+      <c r="GT12" t="n" s="10">
+        <v>1.36827326E8</v>
+      </c>
+      <c r="GU12" t="n" s="10">
+        <v>1.58606611E8</v>
+      </c>
+      <c r="GV12" t="n" s="10">
+        <v>1.5584338E8</v>
       </c>
       <c r="GW12" t="s" s="10">
         <v>37</v>
@@ -9130,14 +9136,14 @@
       <c r="GS13" t="n" s="10">
         <v>7.5723105E7</v>
       </c>
-      <c r="GT13" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU13" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV13" t="s" s="10">
-        <v>37</v>
+      <c r="GT13" t="n" s="10">
+        <v>6.9581335E7</v>
+      </c>
+      <c r="GU13" t="n" s="10">
+        <v>7.8471668E7</v>
+      </c>
+      <c r="GV13" t="n" s="10">
+        <v>7.7719036E7</v>
       </c>
       <c r="GW13" t="s" s="10">
         <v>37</v>
@@ -9750,14 +9756,14 @@
       <c r="GS14" t="n" s="10">
         <v>7.5714535E7</v>
       </c>
-      <c r="GT14" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU14" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV14" t="s" s="10">
-        <v>37</v>
+      <c r="GT14" t="n" s="10">
+        <v>6.724599E7</v>
+      </c>
+      <c r="GU14" t="n" s="10">
+        <v>8.0134943E7</v>
+      </c>
+      <c r="GV14" t="n" s="10">
+        <v>7.8124344E7</v>
       </c>
       <c r="GW14" t="s" s="10">
         <v>37</v>
@@ -10370,14 +10376,14 @@
       <c r="GS15" t="n" s="10">
         <v>3.0271617E7</v>
       </c>
-      <c r="GT15" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU15" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV15" t="s" s="10">
-        <v>37</v>
+      <c r="GT15" t="n" s="10">
+        <v>2.635147E7</v>
+      </c>
+      <c r="GU15" t="n" s="10">
+        <v>3.1915044E7</v>
+      </c>
+      <c r="GV15" t="n" s="10">
+        <v>3.086372E7</v>
       </c>
       <c r="GW15" t="s" s="10">
         <v>37</v>
@@ -10990,14 +10996,14 @@
       <c r="GS16" t="n" s="10">
         <v>4.5442918E7</v>
       </c>
-      <c r="GT16" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU16" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV16" t="s" s="10">
-        <v>37</v>
+      <c r="GT16" t="n" s="10">
+        <v>4.089452E7</v>
+      </c>
+      <c r="GU16" t="n" s="10">
+        <v>4.82199E7</v>
+      </c>
+      <c r="GV16" t="n" s="10">
+        <v>4.7260624E7</v>
       </c>
       <c r="GW16" t="s" s="10">
         <v>37</v>
@@ -11615,14 +11621,14 @@
       <c r="GS18" t="n" s="10">
         <v>9973.0</v>
       </c>
-      <c r="GT18" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU18" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV18" t="s" s="10">
-        <v>37</v>
+      <c r="GT18" t="n" s="10">
+        <v>9970.0</v>
+      </c>
+      <c r="GU18" t="n" s="10">
+        <v>9962.0</v>
+      </c>
+      <c r="GV18" t="n" s="10">
+        <v>9951.0</v>
       </c>
       <c r="GW18" t="s" s="10">
         <v>37</v>
@@ -12235,14 +12241,14 @@
       <c r="GS19" t="n" s="10">
         <v>2030932.0</v>
       </c>
-      <c r="GT19" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU19" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV19" t="s" s="10">
-        <v>37</v>
+      <c r="GT19" t="n" s="10">
+        <v>2043122.0</v>
+      </c>
+      <c r="GU19" t="n" s="10">
+        <v>2051950.0</v>
+      </c>
+      <c r="GV19" t="n" s="10">
+        <v>2050435.0</v>
       </c>
       <c r="GW19" t="s" s="10">
         <v>37</v>
@@ -12855,14 +12861,14 @@
       <c r="GS20" t="n" s="10">
         <v>256896.0</v>
       </c>
-      <c r="GT20" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU20" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV20" t="s" s="10">
-        <v>37</v>
+      <c r="GT20" t="n" s="10">
+        <v>241461.0</v>
+      </c>
+      <c r="GU20" t="n" s="10">
+        <v>261936.0</v>
+      </c>
+      <c r="GV20" t="n" s="10">
+        <v>257513.0</v>
       </c>
       <c r="GW20" t="s" s="10">
         <v>37</v>
@@ -13475,14 +13481,14 @@
       <c r="GS21" t="n" s="10">
         <v>8537899.0</v>
       </c>
-      <c r="GT21" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU21" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV21" t="s" s="10">
-        <v>37</v>
+      <c r="GT21" t="n" s="10">
+        <v>8166509.0</v>
+      </c>
+      <c r="GU21" t="n" s="10">
+        <v>8204065.0</v>
+      </c>
+      <c r="GV21" t="n" s="10">
+        <v>8372800.0</v>
       </c>
       <c r="GW21" t="s" s="10">
         <v>37</v>
@@ -14095,14 +14101,14 @@
       <c r="GS22" t="n" s="10">
         <v>5.4320125E7</v>
       </c>
-      <c r="GT22" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU22" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV22" t="s" s="10">
-        <v>37</v>
+      <c r="GT22" t="n" s="10">
+        <v>5.1931949E7</v>
+      </c>
+      <c r="GU22" t="n" s="10">
+        <v>5.6434033E7</v>
+      </c>
+      <c r="GV22" t="n" s="10">
+        <v>5.5791669E7</v>
       </c>
       <c r="GW22" t="s" s="10">
         <v>37</v>
@@ -14715,14 +14721,14 @@
       <c r="GS23" t="n" s="10">
         <v>2.8770137E7</v>
       </c>
-      <c r="GT23" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU23" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV23" t="s" s="10">
-        <v>37</v>
+      <c r="GT23" t="n" s="10">
+        <v>2.7116458E7</v>
+      </c>
+      <c r="GU23" t="n" s="10">
+        <v>2.9472577E7</v>
+      </c>
+      <c r="GV23" t="n" s="10">
+        <v>2.9442768E7</v>
       </c>
       <c r="GW23" t="s" s="10">
         <v>37</v>
@@ -15335,14 +15341,14 @@
       <c r="GS24" t="n" s="10">
         <v>2.5549988E7</v>
       </c>
-      <c r="GT24" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU24" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV24" t="s" s="10">
-        <v>37</v>
+      <c r="GT24" t="n" s="10">
+        <v>2.4815491E7</v>
+      </c>
+      <c r="GU24" t="n" s="10">
+        <v>2.6961456E7</v>
+      </c>
+      <c r="GV24" t="n" s="10">
+        <v>2.63489E7</v>
       </c>
       <c r="GW24" t="s" s="10">
         <v>37</v>
@@ -15955,14 +15961,14 @@
       <c r="GS25" t="n" s="10">
         <v>1.2110768E7</v>
       </c>
-      <c r="GT25" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU25" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV25" t="s" s="10">
-        <v>37</v>
+      <c r="GT25" t="n" s="10">
+        <v>1.1036763E7</v>
+      </c>
+      <c r="GU25" t="n" s="10">
+        <v>1.2751998E7</v>
+      </c>
+      <c r="GV25" t="n" s="10">
+        <v>1.2485168E7</v>
       </c>
       <c r="GW25" t="s" s="10">
         <v>37</v>
@@ -16575,14 +16581,14 @@
       <c r="GS26" t="n" s="10">
         <v>1.343922E7</v>
       </c>
-      <c r="GT26" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU26" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV26" t="s" s="10">
-        <v>37</v>
+      <c r="GT26" t="n" s="10">
+        <v>1.3778728E7</v>
+      </c>
+      <c r="GU26" t="n" s="10">
+        <v>1.4209459E7</v>
+      </c>
+      <c r="GV26" t="n" s="10">
+        <v>1.3863732E7</v>
       </c>
       <c r="GW26" t="s" s="10">
         <v>37</v>
@@ -17200,14 +17206,14 @@
       <c r="GS28" t="n" s="10">
         <v>7776.0</v>
       </c>
-      <c r="GT28" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU28" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV28" t="s" s="10">
-        <v>37</v>
+      <c r="GT28" t="n" s="10">
+        <v>7766.0</v>
+      </c>
+      <c r="GU28" t="n" s="10">
+        <v>7765.0</v>
+      </c>
+      <c r="GV28" t="n" s="10">
+        <v>7761.0</v>
       </c>
       <c r="GW28" t="s" s="10">
         <v>37</v>
@@ -17820,14 +17826,14 @@
       <c r="GS29" t="n" s="10">
         <v>2414404.0</v>
       </c>
-      <c r="GT29" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU29" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV29" t="s" s="10">
-        <v>37</v>
+      <c r="GT29" t="n" s="10">
+        <v>2414829.0</v>
+      </c>
+      <c r="GU29" t="n" s="10">
+        <v>2425779.0</v>
+      </c>
+      <c r="GV29" t="n" s="10">
+        <v>2421729.0</v>
       </c>
       <c r="GW29" t="s" s="10">
         <v>37</v>
@@ -18440,14 +18446,14 @@
       <c r="GS30" t="n" s="10">
         <v>292728.0</v>
       </c>
-      <c r="GT30" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU30" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV30" t="s" s="10">
-        <v>37</v>
+      <c r="GT30" t="n" s="10">
+        <v>254539.0</v>
+      </c>
+      <c r="GU30" t="n" s="10">
+        <v>293215.0</v>
+      </c>
+      <c r="GV30" t="n" s="10">
+        <v>293375.0</v>
       </c>
       <c r="GW30" t="s" s="10">
         <v>37</v>
@@ -19060,14 +19066,14 @@
       <c r="GS31" t="n" s="10">
         <v>1.211749E7</v>
       </c>
-      <c r="GT31" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU31" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV31" t="s" s="10">
-        <v>37</v>
+      <c r="GT31" t="n" s="10">
+        <v>1.1450155E7</v>
+      </c>
+      <c r="GU31" t="n" s="10">
+        <v>1.1262705E7</v>
+      </c>
+      <c r="GV31" t="n" s="10">
+        <v>1.129098E7</v>
       </c>
       <c r="GW31" t="s" s="10">
         <v>37</v>
@@ -19680,14 +19686,14 @@
       <c r="GS32" t="n" s="10">
         <v>6.5471211E7</v>
       </c>
-      <c r="GT32" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU32" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV32" t="s" s="10">
-        <v>37</v>
+      <c r="GT32" t="n" s="10">
+        <v>5.3663406E7</v>
+      </c>
+      <c r="GU32" t="n" s="10">
+        <v>6.7543705E7</v>
+      </c>
+      <c r="GV32" t="n" s="10">
+        <v>6.6271683E7</v>
       </c>
       <c r="GW32" t="s" s="10">
         <v>37</v>
@@ -20300,14 +20306,14 @@
       <c r="GS33" t="n" s="10">
         <v>2.500376E7</v>
       </c>
-      <c r="GT33" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU33" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV33" t="s" s="10">
-        <v>37</v>
+      <c r="GT33" t="n" s="10">
+        <v>2.0716355E7</v>
+      </c>
+      <c r="GU33" t="n" s="10">
+        <v>2.5224616E7</v>
+      </c>
+      <c r="GV33" t="n" s="10">
+        <v>2.4627165E7</v>
       </c>
       <c r="GW33" t="s" s="10">
         <v>37</v>
@@ -20920,14 +20926,14 @@
       <c r="GS34" t="n" s="10">
         <v>4.0467451E7</v>
       </c>
-      <c r="GT34" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU34" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV34" t="s" s="10">
-        <v>37</v>
+      <c r="GT34" t="n" s="10">
+        <v>3.2947051E7</v>
+      </c>
+      <c r="GU34" t="n" s="10">
+        <v>4.2319089E7</v>
+      </c>
+      <c r="GV34" t="n" s="10">
+        <v>4.1644518E7</v>
       </c>
       <c r="GW34" t="s" s="10">
         <v>37</v>
@@ -21540,14 +21546,14 @@
       <c r="GS35" t="n" s="10">
         <v>1.2986399E7</v>
       </c>
-      <c r="GT35" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU35" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV35" t="s" s="10">
-        <v>37</v>
+      <c r="GT35" t="n" s="10">
+        <v>1.0367742E7</v>
+      </c>
+      <c r="GU35" t="n" s="10">
+        <v>1.3262361E7</v>
+      </c>
+      <c r="GV35" t="n" s="10">
+        <v>1.2791158E7</v>
       </c>
       <c r="GW35" t="s" s="10">
         <v>37</v>
@@ -22160,14 +22166,14 @@
       <c r="GS36" t="n" s="10">
         <v>2.7481052E7</v>
       </c>
-      <c r="GT36" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU36" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV36" t="s" s="10">
-        <v>37</v>
+      <c r="GT36" t="n" s="10">
+        <v>2.257931E7</v>
+      </c>
+      <c r="GU36" t="n" s="10">
+        <v>2.9056728E7</v>
+      </c>
+      <c r="GV36" t="n" s="10">
+        <v>2.8853359E7</v>
       </c>
       <c r="GW36" t="s" s="10">
         <v>37</v>
@@ -22785,14 +22791,14 @@
       <c r="GS38" t="n" s="10">
         <v>785.0</v>
       </c>
-      <c r="GT38" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU38" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV38" t="s" s="10">
-        <v>37</v>
+      <c r="GT38" t="n" s="10">
+        <v>785.0</v>
+      </c>
+      <c r="GU38" t="n" s="10">
+        <v>785.0</v>
+      </c>
+      <c r="GV38" t="n" s="10">
+        <v>784.0</v>
       </c>
       <c r="GW38" t="s" s="10">
         <v>37</v>
@@ -23405,14 +23411,14 @@
       <c r="GS39" t="n" s="10">
         <v>176786.0</v>
       </c>
-      <c r="GT39" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU39" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV39" t="s" s="10">
-        <v>37</v>
+      <c r="GT39" t="n" s="10">
+        <v>177777.0</v>
+      </c>
+      <c r="GU39" t="n" s="10">
+        <v>179036.0</v>
+      </c>
+      <c r="GV39" t="n" s="10">
+        <v>179655.0</v>
       </c>
       <c r="GW39" t="s" s="10">
         <v>37</v>
@@ -24025,14 +24031,14 @@
       <c r="GS40" t="n" s="10">
         <v>21274.0</v>
       </c>
-      <c r="GT40" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU40" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV40" t="s" s="10">
-        <v>37</v>
+      <c r="GT40" t="n" s="10">
+        <v>19733.0</v>
+      </c>
+      <c r="GU40" t="n" s="10">
+        <v>22661.0</v>
+      </c>
+      <c r="GV40" t="n" s="10">
+        <v>22371.0</v>
       </c>
       <c r="GW40" t="s" s="10">
         <v>37</v>
@@ -24645,14 +24651,14 @@
       <c r="GS41" t="n" s="10">
         <v>731233.0</v>
       </c>
-      <c r="GT41" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU41" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV41" t="s" s="10">
-        <v>37</v>
+      <c r="GT41" t="n" s="10">
+        <v>674700.0</v>
+      </c>
+      <c r="GU41" t="n" s="10">
+        <v>680989.0</v>
+      </c>
+      <c r="GV41" t="n" s="10">
+        <v>734350.0</v>
       </c>
       <c r="GW41" t="s" s="10">
         <v>37</v>
@@ -25265,14 +25271,14 @@
       <c r="GS42" t="n" s="10">
         <v>3884243.0</v>
       </c>
-      <c r="GT42" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU42" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV42" t="s" s="10">
-        <v>37</v>
+      <c r="GT42" t="n" s="10">
+        <v>3528818.0</v>
+      </c>
+      <c r="GU42" t="n" s="10">
+        <v>4388352.0</v>
+      </c>
+      <c r="GV42" t="n" s="10">
+        <v>4249801.0</v>
       </c>
       <c r="GW42" t="s" s="10">
         <v>37</v>
@@ -25885,14 +25891,14 @@
       <c r="GS43" t="n" s="10">
         <v>1901198.0</v>
       </c>
-      <c r="GT43" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU43" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV43" t="s" s="10">
-        <v>37</v>
+      <c r="GT43" t="n" s="10">
+        <v>1732462.0</v>
+      </c>
+      <c r="GU43" t="n" s="10">
+        <v>2146720.0</v>
+      </c>
+      <c r="GV43" t="n" s="10">
+        <v>2130146.0</v>
       </c>
       <c r="GW43" t="s" s="10">
         <v>37</v>
@@ -26505,14 +26511,14 @@
       <c r="GS44" t="n" s="10">
         <v>1983044.0</v>
       </c>
-      <c r="GT44" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU44" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV44" t="s" s="10">
-        <v>37</v>
+      <c r="GT44" t="n" s="10">
+        <v>1796356.0</v>
+      </c>
+      <c r="GU44" t="n" s="10">
+        <v>2241632.0</v>
+      </c>
+      <c r="GV44" t="n" s="10">
+        <v>2119655.0</v>
       </c>
       <c r="GW44" t="s" s="10">
         <v>37</v>
@@ -27125,14 +27131,14 @@
       <c r="GS45" t="n" s="10">
         <v>1052562.0</v>
       </c>
-      <c r="GT45" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU45" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV45" t="s" s="10">
-        <v>37</v>
+      <c r="GT45" t="n" s="10">
+        <v>916947.0</v>
+      </c>
+      <c r="GU45" t="n" s="10">
+        <v>1186194.0</v>
+      </c>
+      <c r="GV45" t="n" s="10">
+        <v>1169859.0</v>
       </c>
       <c r="GW45" t="s" s="10">
         <v>37</v>
@@ -27745,14 +27751,14 @@
       <c r="GS46" t="n" s="10">
         <v>930482.0</v>
       </c>
-      <c r="GT46" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU46" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV46" t="s" s="10">
-        <v>37</v>
+      <c r="GT46" t="n" s="10">
+        <v>879409.0</v>
+      </c>
+      <c r="GU46" t="n" s="10">
+        <v>1055437.0</v>
+      </c>
+      <c r="GV46" t="n" s="10">
+        <v>949796.0</v>
       </c>
       <c r="GW46" t="s" s="10">
         <v>37</v>
@@ -28370,14 +28376,14 @@
       <c r="GS48" t="n" s="10">
         <v>4043.0</v>
       </c>
-      <c r="GT48" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU48" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV48" t="s" s="10">
-        <v>37</v>
+      <c r="GT48" t="n" s="10">
+        <v>4036.0</v>
+      </c>
+      <c r="GU48" t="n" s="10">
+        <v>4032.0</v>
+      </c>
+      <c r="GV48" t="n" s="10">
+        <v>4029.0</v>
       </c>
       <c r="GW48" t="s" s="10">
         <v>37</v>
@@ -28990,14 +28996,14 @@
       <c r="GS49" t="n" s="10">
         <v>827452.0</v>
       </c>
-      <c r="GT49" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU49" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV49" t="s" s="10">
-        <v>37</v>
+      <c r="GT49" t="n" s="10">
+        <v>830689.0</v>
+      </c>
+      <c r="GU49" t="n" s="10">
+        <v>834007.0</v>
+      </c>
+      <c r="GV49" t="n" s="10">
+        <v>831353.0</v>
       </c>
       <c r="GW49" t="s" s="10">
         <v>37</v>
@@ -29610,14 +29616,14 @@
       <c r="GS50" t="n" s="10">
         <v>104525.0</v>
       </c>
-      <c r="GT50" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU50" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV50" t="s" s="10">
-        <v>37</v>
+      <c r="GT50" t="n" s="10">
+        <v>102059.0</v>
+      </c>
+      <c r="GU50" t="n" s="10">
+        <v>106378.0</v>
+      </c>
+      <c r="GV50" t="n" s="10">
+        <v>104854.0</v>
       </c>
       <c r="GW50" t="s" s="10">
         <v>37</v>
@@ -30230,14 +30236,14 @@
       <c r="GS51" t="n" s="10">
         <v>2741157.0</v>
       </c>
-      <c r="GT51" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU51" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV51" t="s" s="10">
-        <v>37</v>
+      <c r="GT51" t="n" s="10">
+        <v>2712951.0</v>
+      </c>
+      <c r="GU51" t="n" s="10">
+        <v>2736503.0</v>
+      </c>
+      <c r="GV51" t="n" s="10">
+        <v>2759400.0</v>
       </c>
       <c r="GW51" t="s" s="10">
         <v>37</v>
@@ -30850,14 +30856,14 @@
       <c r="GS52" t="n" s="10">
         <v>2.184279E7</v>
       </c>
-      <c r="GT52" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU52" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV52" t="s" s="10">
-        <v>37</v>
+      <c r="GT52" t="n" s="10">
+        <v>2.1725763E7</v>
+      </c>
+      <c r="GU52" t="n" s="10">
+        <v>2.4018898E7</v>
+      </c>
+      <c r="GV52" t="n" s="10">
+        <v>2.2447392E7</v>
       </c>
       <c r="GW52" t="s" s="10">
         <v>37</v>
@@ -31470,14 +31476,14 @@
       <c r="GS53" t="n" s="10">
         <v>1.4787419E7</v>
       </c>
-      <c r="GT53" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU53" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV53" t="s" s="10">
-        <v>37</v>
+      <c r="GT53" t="n" s="10">
+        <v>1.4752043E7</v>
+      </c>
+      <c r="GU53" t="n" s="10">
+        <v>1.6090877E7</v>
+      </c>
+      <c r="GV53" t="n" s="10">
+        <v>1.5129431E7</v>
       </c>
       <c r="GW53" t="s" s="10">
         <v>37</v>
@@ -32090,14 +32096,14 @@
       <c r="GS54" t="n" s="10">
         <v>7055371.0</v>
       </c>
-      <c r="GT54" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU54" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV54" t="s" s="10">
-        <v>37</v>
+      <c r="GT54" t="n" s="10">
+        <v>6973719.0</v>
+      </c>
+      <c r="GU54" t="n" s="10">
+        <v>7928022.0</v>
+      </c>
+      <c r="GV54" t="n" s="10">
+        <v>7317960.0</v>
       </c>
       <c r="GW54" t="s" s="10">
         <v>37</v>
@@ -32710,14 +32716,14 @@
       <c r="GS55" t="n" s="10">
         <v>3749905.0</v>
       </c>
-      <c r="GT55" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU55" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV55" t="s" s="10">
-        <v>37</v>
+      <c r="GT55" t="n" s="10">
+        <v>3626592.0</v>
+      </c>
+      <c r="GU55" t="n" s="10">
+        <v>4240113.0</v>
+      </c>
+      <c r="GV55" t="n" s="10">
+        <v>3966652.0</v>
       </c>
       <c r="GW55" t="s" s="10">
         <v>37</v>
@@ -33330,14 +33336,14 @@
       <c r="GS56" t="n" s="10">
         <v>3305466.0</v>
       </c>
-      <c r="GT56" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU56" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV56" t="s" s="10">
-        <v>37</v>
+      <c r="GT56" t="n" s="10">
+        <v>3347128.0</v>
+      </c>
+      <c r="GU56" t="n" s="10">
+        <v>3687909.0</v>
+      </c>
+      <c r="GV56" t="n" s="10">
+        <v>3351308.0</v>
       </c>
       <c r="GW56" t="s" s="10">
         <v>37</v>
@@ -33955,14 +33961,14 @@
       <c r="GS58" t="n" s="10">
         <v>83.0</v>
       </c>
-      <c r="GT58" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU58" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV58" t="s" s="10">
-        <v>37</v>
+      <c r="GT58" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="GU58" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="GV58" t="n" s="10">
+        <v>82.0</v>
       </c>
       <c r="GW58" t="s" s="10">
         <v>37</v>
@@ -34575,14 +34581,14 @@
       <c r="GS59" t="n" s="10">
         <v>29481.0</v>
       </c>
-      <c r="GT59" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU59" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV59" t="s" s="10">
-        <v>37</v>
+      <c r="GT59" t="n" s="10">
+        <v>29421.0</v>
+      </c>
+      <c r="GU59" t="n" s="10">
+        <v>29402.0</v>
+      </c>
+      <c r="GV59" t="n" s="10">
+        <v>29226.0</v>
       </c>
       <c r="GW59" t="s" s="10">
         <v>37</v>
@@ -35195,14 +35201,14 @@
       <c r="GS60" t="n" s="10">
         <v>3858.0</v>
       </c>
-      <c r="GT60" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU60" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV60" t="s" s="10">
-        <v>37</v>
+      <c r="GT60" t="n" s="10">
+        <v>3762.0</v>
+      </c>
+      <c r="GU60" t="n" s="10">
+        <v>3895.0</v>
+      </c>
+      <c r="GV60" t="n" s="10">
+        <v>3873.0</v>
       </c>
       <c r="GW60" t="s" s="10">
         <v>37</v>
@@ -35815,14 +35821,14 @@
       <c r="GS61" t="n" s="10">
         <v>165358.0</v>
       </c>
-      <c r="GT61" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU61" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV61" t="s" s="10">
-        <v>37</v>
+      <c r="GT61" t="n" s="10">
+        <v>161956.0</v>
+      </c>
+      <c r="GU61" t="n" s="10">
+        <v>166173.0</v>
+      </c>
+      <c r="GV61" t="n" s="10">
+        <v>187323.0</v>
       </c>
       <c r="GW61" t="s" s="10">
         <v>37</v>
@@ -36435,14 +36441,14 @@
       <c r="GS62" t="n" s="10">
         <v>5919271.0</v>
       </c>
-      <c r="GT62" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU62" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV62" t="s" s="10">
-        <v>37</v>
+      <c r="GT62" t="n" s="10">
+        <v>5977390.0</v>
+      </c>
+      <c r="GU62" t="n" s="10">
+        <v>6221623.0</v>
+      </c>
+      <c r="GV62" t="n" s="10">
+        <v>7082836.0</v>
       </c>
       <c r="GW62" t="s" s="10">
         <v>37</v>
@@ -37055,14 +37061,14 @@
       <c r="GS63" t="n" s="10">
         <v>5260590.0</v>
       </c>
-      <c r="GT63" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU63" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV63" t="s" s="10">
-        <v>37</v>
+      <c r="GT63" t="n" s="10">
+        <v>5264018.0</v>
+      </c>
+      <c r="GU63" t="n" s="10">
+        <v>5536879.0</v>
+      </c>
+      <c r="GV63" t="n" s="10">
+        <v>6389524.0</v>
       </c>
       <c r="GW63" t="s" s="10">
         <v>37</v>
@@ -37675,14 +37681,14 @@
       <c r="GS64" t="n" s="10">
         <v>658681.0</v>
       </c>
-      <c r="GT64" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU64" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV64" t="s" s="10">
-        <v>37</v>
+      <c r="GT64" t="n" s="10">
+        <v>713372.0</v>
+      </c>
+      <c r="GU64" t="n" s="10">
+        <v>684744.0</v>
+      </c>
+      <c r="GV64" t="n" s="10">
+        <v>693311.0</v>
       </c>
       <c r="GW64" t="s" s="10">
         <v>37</v>
@@ -38295,14 +38301,14 @@
       <c r="GS65" t="n" s="10">
         <v>371983.0</v>
       </c>
-      <c r="GT65" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU65" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV65" t="s" s="10">
-        <v>37</v>
+      <c r="GT65" t="n" s="10">
+        <v>403427.0</v>
+      </c>
+      <c r="GU65" t="n" s="10">
+        <v>474378.0</v>
+      </c>
+      <c r="GV65" t="n" s="10">
+        <v>450883.0</v>
       </c>
       <c r="GW65" t="s" s="10">
         <v>37</v>
@@ -38915,14 +38921,14 @@
       <c r="GS66" t="n" s="10">
         <v>286698.0</v>
       </c>
-      <c r="GT66" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU66" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV66" t="s" s="10">
-        <v>37</v>
+      <c r="GT66" t="n" s="10">
+        <v>309946.0</v>
+      </c>
+      <c r="GU66" t="n" s="10">
+        <v>210367.0</v>
+      </c>
+      <c r="GV66" t="n" s="10">
+        <v>242429.0</v>
       </c>
       <c r="GW66" t="s" s="10">
         <v>37</v>
@@ -39540,14 +39546,14 @@
       <c r="GS68" t="n" s="10">
         <v>133.0</v>
       </c>
-      <c r="GT68" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU68" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV68" t="s" s="10">
-        <v>37</v>
+      <c r="GT68" t="n" s="10">
+        <v>133.0</v>
+      </c>
+      <c r="GU68" t="n" s="10">
+        <v>132.0</v>
+      </c>
+      <c r="GV68" t="n" s="10">
+        <v>132.0</v>
       </c>
       <c r="GW68" t="s" s="10">
         <v>37</v>
@@ -40160,14 +40166,14 @@
       <c r="GS69" t="n" s="10">
         <v>23750.0</v>
       </c>
-      <c r="GT69" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU69" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV69" t="s" s="10">
-        <v>37</v>
+      <c r="GT69" t="n" s="10">
+        <v>23706.0</v>
+      </c>
+      <c r="GU69" t="n" s="10">
+        <v>23723.0</v>
+      </c>
+      <c r="GV69" t="n" s="10">
+        <v>23486.0</v>
       </c>
       <c r="GW69" t="s" s="10">
         <v>37</v>
@@ -40780,14 +40786,14 @@
       <c r="GS70" t="n" s="10">
         <v>3055.0</v>
       </c>
-      <c r="GT70" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU70" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV70" t="s" s="10">
-        <v>37</v>
+      <c r="GT70" t="n" s="10">
+        <v>2928.0</v>
+      </c>
+      <c r="GU70" t="n" s="10">
+        <v>3064.0</v>
+      </c>
+      <c r="GV70" t="n" s="10">
+        <v>3037.0</v>
       </c>
       <c r="GW70" t="s" s="10">
         <v>37</v>
@@ -41400,14 +41406,14 @@
       <c r="GS71" t="n" s="10">
         <v>109870.0</v>
       </c>
-      <c r="GT71" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU71" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV71" t="s" s="10">
-        <v>37</v>
+      <c r="GT71" t="n" s="10">
+        <v>105893.0</v>
+      </c>
+      <c r="GU71" t="n" s="10">
+        <v>110324.0</v>
+      </c>
+      <c r="GV71" t="n" s="10">
+        <v>128392.0</v>
       </c>
       <c r="GW71" t="s" s="10">
         <v>37</v>
@@ -42020,14 +42026,14 @@
       <c r="GS72" t="n" s="10">
         <v>489076.0</v>
       </c>
-      <c r="GT72" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU72" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV72" t="s" s="10">
-        <v>37</v>
+      <c r="GT72" t="n" s="10">
+        <v>488773.0</v>
+      </c>
+      <c r="GU72" t="n" s="10">
+        <v>460881.0</v>
+      </c>
+      <c r="GV72" t="n" s="10">
+        <v>487993.0</v>
       </c>
       <c r="GW72" t="s" s="10">
         <v>37</v>
@@ -42640,14 +42646,14 @@
       <c r="GS73" t="n" s="10">
         <v>370866.0</v>
       </c>
-      <c r="GT73" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU73" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV73" t="s" s="10">
-        <v>37</v>
+      <c r="GT73" t="n" s="10">
+        <v>359051.0</v>
+      </c>
+      <c r="GU73" t="n" s="10">
+        <v>403185.0</v>
+      </c>
+      <c r="GV73" t="n" s="10">
+        <v>436929.0</v>
       </c>
       <c r="GW73" t="s" s="10">
         <v>37</v>
@@ -43260,14 +43266,14 @@
       <c r="GS74" t="n" s="10">
         <v>118210.0</v>
       </c>
-      <c r="GT74" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU74" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV74" t="s" s="10">
-        <v>37</v>
+      <c r="GT74" t="n" s="10">
+        <v>129722.0</v>
+      </c>
+      <c r="GU74" t="n" s="10">
+        <v>57696.0</v>
+      </c>
+      <c r="GV74" t="n" s="10">
+        <v>51065.0</v>
       </c>
       <c r="GW74" t="s" s="10">
         <v>37</v>
@@ -43880,14 +43886,14 @@
       <c r="GS75" t="n" s="10">
         <v>27979.0</v>
       </c>
-      <c r="GT75" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU75" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV75" t="s" s="10">
-        <v>37</v>
+      <c r="GT75" t="n" s="10">
+        <v>24952.0</v>
+      </c>
+      <c r="GU75" t="n" s="10">
+        <v>33789.0</v>
+      </c>
+      <c r="GV75" t="n" s="10">
+        <v>31002.0</v>
       </c>
       <c r="GW75" t="s" s="10">
         <v>37</v>
@@ -44500,14 +44506,14 @@
       <c r="GS76" t="n" s="10">
         <v>90231.0</v>
       </c>
-      <c r="GT76" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU76" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV76" t="s" s="10">
-        <v>37</v>
+      <c r="GT76" t="n" s="10">
+        <v>104770.0</v>
+      </c>
+      <c r="GU76" t="n" s="10">
+        <v>23906.0</v>
+      </c>
+      <c r="GV76" t="n" s="10">
+        <v>20063.0</v>
       </c>
       <c r="GW76" t="s" s="10">
         <v>37</v>
@@ -45125,14 +45131,14 @@
       <c r="GS78" t="n" s="10">
         <v>22527.0</v>
       </c>
-      <c r="GT78" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU78" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV78" t="s" s="10">
-        <v>37</v>
+      <c r="GT78" t="n" s="10">
+        <v>22507.0</v>
+      </c>
+      <c r="GU78" t="n" s="10">
+        <v>22494.0</v>
+      </c>
+      <c r="GV78" t="n" s="10">
+        <v>22475.0</v>
       </c>
       <c r="GW78" t="s" s="10">
         <v>37</v>
@@ -45745,14 +45751,14 @@
       <c r="GS79" t="n" s="10">
         <v>5455305.0</v>
       </c>
-      <c r="GT79" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU79" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV79" t="s" s="10">
-        <v>37</v>
+      <c r="GT79" t="n" s="10">
+        <v>5472132.0</v>
+      </c>
+      <c r="GU79" t="n" s="10">
+        <v>5496451.0</v>
+      </c>
+      <c r="GV79" t="n" s="10">
+        <v>5488912.0</v>
       </c>
       <c r="GW79" t="s" s="10">
         <v>37</v>
@@ -46365,14 +46371,14 @@
       <c r="GS80" t="n" s="10">
         <v>676226.0</v>
       </c>
-      <c r="GT80" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU80" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV80" t="s" s="10">
-        <v>37</v>
+      <c r="GT80" t="n" s="10">
+        <v>618625.0</v>
+      </c>
+      <c r="GU80" t="n" s="10">
+        <v>685019.0</v>
+      </c>
+      <c r="GV80" t="n" s="10">
+        <v>678948.0</v>
       </c>
       <c r="GW80" t="s" s="10">
         <v>37</v>
@@ -46985,14 +46991,14 @@
       <c r="GS81" t="n" s="10">
         <v>2.4183267E7</v>
       </c>
-      <c r="GT81" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU81" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV81" t="s" s="10">
-        <v>37</v>
+      <c r="GT81" t="n" s="10">
+        <v>2.3060378E7</v>
+      </c>
+      <c r="GU81" t="n" s="10">
+        <v>2.2940111E7</v>
+      </c>
+      <c r="GV81" t="n" s="10">
+        <v>2.3216461E7</v>
       </c>
       <c r="GW81" t="s" s="10">
         <v>37</v>
@@ -47605,14 +47611,14 @@
       <c r="GS82" t="n" s="10">
         <v>1.50948564E8</v>
       </c>
-      <c r="GT82" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU82" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV82" t="s" s="10">
-        <v>37</v>
+      <c r="GT82" t="n" s="10">
+        <v>1.36338552E8</v>
+      </c>
+      <c r="GU82" t="n" s="10">
+        <v>1.58145731E8</v>
+      </c>
+      <c r="GV82" t="n" s="10">
+        <v>1.55355387E8</v>
       </c>
       <c r="GW82" t="s" s="10">
         <v>37</v>
@@ -48225,14 +48231,14 @@
       <c r="GS83" t="n" s="10">
         <v>7.5352239E7</v>
       </c>
-      <c r="GT83" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU83" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV83" t="s" s="10">
-        <v>37</v>
+      <c r="GT83" t="n" s="10">
+        <v>6.9222284E7</v>
+      </c>
+      <c r="GU83" t="n" s="10">
+        <v>7.8068483E7</v>
+      </c>
+      <c r="GV83" t="n" s="10">
+        <v>7.7282107E7</v>
       </c>
       <c r="GW83" t="s" s="10">
         <v>37</v>
@@ -48845,14 +48851,14 @@
       <c r="GS84" t="n" s="10">
         <v>7.5596324E7</v>
       </c>
-      <c r="GT84" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU84" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV84" t="s" s="10">
-        <v>37</v>
+      <c r="GT84" t="n" s="10">
+        <v>6.7116268E7</v>
+      </c>
+      <c r="GU84" t="n" s="10">
+        <v>8.0077248E7</v>
+      </c>
+      <c r="GV84" t="n" s="10">
+        <v>7.8073279E7</v>
       </c>
       <c r="GW84" t="s" s="10">
         <v>37</v>
@@ -49465,14 +49471,14 @@
       <c r="GS85" t="n" s="10">
         <v>3.0243637E7</v>
       </c>
-      <c r="GT85" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU85" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV85" t="s" s="10">
-        <v>37</v>
+      <c r="GT85" t="n" s="10">
+        <v>2.6326518E7</v>
+      </c>
+      <c r="GU85" t="n" s="10">
+        <v>3.1881254E7</v>
+      </c>
+      <c r="GV85" t="n" s="10">
+        <v>3.0832718E7</v>
       </c>
       <c r="GW85" t="s" s="10">
         <v>37</v>
@@ -50085,14 +50091,14 @@
       <c r="GS86" t="n" s="10">
         <v>4.5352687E7</v>
       </c>
-      <c r="GT86" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GU86" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="GV86" t="s" s="10">
-        <v>37</v>
+      <c r="GT86" t="n" s="10">
+        <v>4.078975E7</v>
+      </c>
+      <c r="GU86" t="n" s="10">
+        <v>4.8195993E7</v>
+      </c>
+      <c r="GV86" t="n" s="10">
+        <v>4.7240561E7</v>
       </c>
       <c r="GW86" t="s" s="10">
         <v>37</v>
@@ -50197,7 +50203,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:54:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:50:40&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>